--- a/posesiones/1381292.xlsx
+++ b/posesiones/1381292.xlsx
@@ -1793,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>15</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>18</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>16</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>7</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>25</v>
@@ -2643,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>17</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>18</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>9</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <v>12</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>19</v>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>19</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>14</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>17</v>
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R34">
         <v>23</v>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R35">
         <v>23</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R37">
         <v>13</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R42">
         <v>22</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R44">
         <v>21</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R46">
         <v>11</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R49">
         <v>6</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>15</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>14</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4511,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>16</v>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R59">
         <v>20</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R61">
         <v>22</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>39</v>
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R72">
         <v>17</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5349,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R74">
         <v>18</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R76">
         <v>18</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R78">
         <v>25</v>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R80">
         <v>8</v>
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R81">
         <v>17</v>
@@ -5764,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R82">
         <v>23</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R84">
         <v>7</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6099,10 +6099,10 @@
         <v>1</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6237,10 +6237,10 @@
         <v>1</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R93">
         <v>12</v>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R99">
         <v>14</v>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R100">
         <v>21</v>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R102">
         <v>16</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R104">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R105">
         <v>25</v>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R107">
         <v>12</v>
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R108">
         <v>9</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7472,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R117">
         <v>19</v>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7575,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R119">
         <v>8</v>
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R120">
         <v>15</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8010,7 +8010,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R128">
         <v>32</v>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8113,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R130">
         <v>15</v>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8357,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R135">
         <v>26</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8457,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R137">
         <v>20</v>
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R138">
         <v>20</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R140">
         <v>10</v>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8804,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R144">
         <v>15</v>
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8907,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R146">
         <v>14</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9007,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R148">
         <v>10</v>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R150">
         <v>12</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9210,7 +9210,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R152">
         <v>17</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9310,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R154">
         <v>20</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9507,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R158">
         <v>20</v>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9748,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R163">
         <v>11</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R168">
         <v>15</v>
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R170">
         <v>5</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10192,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R172">
         <v>6</v>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10295,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R174">
         <v>15</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10533,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R179">
         <v>20</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10730,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R183">
         <v>9</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R193">
         <v>12</v>
@@ -11262,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R194">
         <v>14</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11406,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11503,7 +11503,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R199">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R200">
         <v>20</v>
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11656,7 +11656,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R202">
         <v>22</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R205">
         <v>17</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11903,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R207">
         <v>16</v>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12003,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R209">
         <v>6</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R211">
         <v>13</v>
@@ -12147,10 +12147,10 @@
         <v>1</v>
       </c>
       <c r="P212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q212">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12338,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12567,10 +12567,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q221">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12714,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R224">
         <v>15</v>
@@ -12764,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12858,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12905,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12999,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13196,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R234">
         <v>32</v>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R236">
         <v>0</v>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13449,7 +13449,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R239">
         <v>15</v>
@@ -13499,7 +13499,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13646,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R243">
         <v>43</v>
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13749,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R245">
         <v>10</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13849,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R247">
         <v>5</v>
@@ -13899,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14043,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R251">
         <v>49</v>
@@ -14096,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R253">
         <v>4</v>
@@ -14199,7 +14199,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R254">
         <v>20</v>
@@ -14252,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14299,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14396,7 +14396,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R258">
         <v>20</v>
@@ -14446,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14496,7 +14496,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R260">
         <v>25</v>
@@ -14546,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14593,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14640,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14687,7 +14687,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14740,7 +14740,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R265">
         <v>13</v>
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14840,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R267">
         <v>16</v>
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14940,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R269">
         <v>5</v>
@@ -14990,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15040,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R271">
         <v>15</v>
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15143,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R273">
         <v>8</v>
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15243,7 +15243,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15387,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15437,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R279">
         <v>32</v>
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15540,7 +15540,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R281">
         <v>14</v>
@@ -15590,7 +15590,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15731,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15778,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R287">
         <v>33</v>
@@ -15881,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15931,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R289">
         <v>16</v>
@@ -15981,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16075,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R292">
         <v>23</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R294">
         <v>8</v>
@@ -16231,7 +16231,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R295">
         <v>22</v>
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R297">
         <v>9</v>
@@ -16384,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R298">
         <v>17</v>
@@ -16437,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16487,7 +16487,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R300">
         <v>7</v>
@@ -16540,7 +16540,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R301">
         <v>21</v>
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16731,7 +16731,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16872,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17013,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17063,7 +17063,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R312">
         <v>14</v>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17160,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17210,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R315">
         <v>17</v>
@@ -17260,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17307,7 +17307,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17354,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17401,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17448,7 +17448,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17495,7 +17495,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17545,7 +17545,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R322">
         <v>10</v>
@@ -17598,7 +17598,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R323">
         <v>16</v>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R326">
         <v>12</v>
@@ -17801,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17898,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17948,7 +17948,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R330">
         <v>18</v>
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R331">
         <v>4</v>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18101,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R333">
         <v>3</v>
@@ -18154,7 +18154,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R334">
         <v>5</v>
@@ -18207,7 +18207,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18257,7 +18257,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R336">
         <v>2</v>
@@ -18301,10 +18301,10 @@
         <v>1</v>
       </c>
       <c r="P337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q337">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18351,7 +18351,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18439,10 +18439,10 @@
         <v>1</v>
       </c>
       <c r="P340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18492,7 +18492,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R341">
         <v>17</v>
@@ -18545,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18595,7 +18595,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R343">
         <v>10</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18695,7 +18695,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R345">
         <v>4</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18795,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18842,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19080,7 +19080,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R353">
         <v>11</v>
@@ -19133,7 +19133,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R354">
         <v>17</v>
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19236,7 +19236,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R356">
         <v>19</v>
@@ -19289,7 +19289,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19339,7 +19339,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R358">
         <v>12</v>
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19439,7 +19439,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R360">
         <v>23</v>
@@ -19492,7 +19492,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R361">
         <v>12</v>
@@ -19542,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19592,7 +19592,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R363">
         <v>25</v>
@@ -19642,7 +19642,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R365">
         <v>18</v>
@@ -19745,7 +19745,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R366">
         <v>24</v>
@@ -19798,7 +19798,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R367">
         <v>18</v>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19895,7 +19895,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19992,7 +19992,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R371">
         <v>23</v>
@@ -20042,7 +20042,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20089,7 +20089,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20139,7 +20139,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R374">
         <v>14</v>
@@ -20189,7 +20189,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20239,7 +20239,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R376">
         <v>8</v>
@@ -20292,7 +20292,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R377">
         <v>13</v>
@@ -20342,7 +20342,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20392,7 +20392,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R379">
         <v>4</v>
@@ -20445,7 +20445,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R380">
         <v>20</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20542,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20686,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R385">
         <v>19</v>
@@ -20736,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20780,7 +20780,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20830,7 +20830,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R388">
         <v>17</v>
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20930,7 +20930,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R390">
         <v>27</v>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21030,7 +21030,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21171,7 +21171,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21221,7 +21221,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R396">
         <v>16</v>
@@ -21271,7 +21271,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21368,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21415,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21462,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21512,7 +21512,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R402">
         <v>30</v>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R403">
         <v>18</v>
@@ -21615,7 +21615,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21709,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21756,7 +21756,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21806,7 +21806,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R408">
         <v>15</v>
@@ -21856,7 +21856,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21903,7 +21903,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22000,7 +22000,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R412">
         <v>11</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R413">
         <v>24</v>
@@ -22106,7 +22106,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R414">
         <v>18</v>
@@ -22159,7 +22159,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22206,7 +22206,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22256,7 +22256,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22306,7 +22306,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R418">
         <v>23</v>
@@ -22356,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22406,7 +22406,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22456,7 +22456,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R421">
         <v>17</v>
@@ -22506,7 +22506,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22556,7 +22556,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R423">
         <v>5</v>
@@ -22606,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22650,7 +22650,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22700,7 +22700,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R426">
         <v>7</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22800,7 +22800,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22894,7 +22894,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22941,7 +22941,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22991,7 +22991,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R432">
         <v>30</v>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R434">
         <v>5</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23191,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23379,7 +23379,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23429,7 +23429,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R441">
         <v>10</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23526,7 +23526,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R443">
         <v>5</v>
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23626,7 +23626,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23720,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23770,7 +23770,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R448">
         <v>3</v>
@@ -23823,7 +23823,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23873,7 +23873,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R450">
         <v>3</v>
@@ -23917,10 +23917,10 @@
         <v>1</v>
       </c>
       <c r="P451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q451">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23961,7 +23961,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
